--- a/02_MasterWifoMannheim/99_Backup/Course33.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A20115922A8F27ADDFE2B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E163059-CF37-43DA-8216-47E01567DA56}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B361159AA9032584DFFAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41181BCF-9203-409F-BA90-A1A92921AD3D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>CS 708</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>Specific seminar topics are suggested every semester, see announcements on the group website.</t>
+    <t>Continuously</t>
   </si>
   <si>
     <t>Lecturer</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>1./ 2. /3. Semester</t>
+  </si>
+  <si>
+    <t>SQ 500 Scientific Research</t>
   </si>
 </sst>
 </file>
@@ -559,6 +562,9 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
